--- a/GantExcel/未来創造展_ガントチャート/05_レベルデザイン.xlsx
+++ b/GantExcel/未来創造展_ガントチャート/05_レベルデザイン.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hyllos\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="17235" windowHeight="10545"/>
   </bookViews>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>報告日：</t>
     <rPh sb="0" eb="2">
@@ -290,6 +285,17 @@
   <si>
     <t>レーダーマップ</t>
   </si>
+  <si>
+    <t>wiki(α版)</t>
+    <rPh sb="5" eb="7">
+      <t>アルファバン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://noovertime.sakura.ne.jp/?%E4%BB%95%E6%A7%98%E3%81%AB%E3%81%A4%E3%81%84%E3%81%A6/%CE%B1%E4%BB%95%E6%A7%98%E6%9B%B8</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -303,7 +309,7 @@
     <numFmt numFmtId="180" formatCode="#0.0&quot;日&quot;"/>
     <numFmt numFmtId="181" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +357,15 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -700,7 +715,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,8 +724,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,14 +922,25 @@
     <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
     <cellStyle name="標準_TimeLine" xfId="1"/>
     <cellStyle name="標準_静岡3S019600-管理-003【関西ホスト移設スケジュール】 (version 1)" xfId="3"/>
   </cellStyles>
-  <dxfs count="804">
+  <dxfs count="805">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6622,7 +6651,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6664,7 +6693,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6699,7 +6728,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6916,7 +6945,7 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8476,7 +8505,9 @@
     </row>
     <row r="6" spans="1:109" ht="39" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -8587,7 +8618,9 @@
     </row>
     <row r="7" spans="1:109" ht="39" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="65" t="s">
+        <v>48</v>
+      </c>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
@@ -20416,3026 +20449,3034 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="A5:H8 A10:H11">
-    <cfRule type="expression" dxfId="803" priority="797" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:H5 A10:H11 A8:H8 A6:A7 C6:H7">
+    <cfRule type="expression" dxfId="804" priority="798" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J4 I4">
-    <cfRule type="expression" dxfId="802" priority="798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="803" priority="799" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="802" priority="800" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J8 I10:J11">
-    <cfRule type="expression" dxfId="800" priority="800" stopIfTrue="1">
+    <cfRule type="expression" dxfId="801" priority="801" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="799" priority="801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="800" priority="802" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="799" priority="803" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="797" priority="803" stopIfTrue="1">
+    <cfRule type="expression" dxfId="798" priority="804" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="804" stopIfTrue="1">
+    <cfRule type="expression" dxfId="797" priority="805" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:H109">
-    <cfRule type="expression" dxfId="795" priority="793" stopIfTrue="1">
+    <cfRule type="expression" dxfId="796" priority="794" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J109">
-    <cfRule type="expression" dxfId="794" priority="794" stopIfTrue="1">
+    <cfRule type="expression" dxfId="795" priority="795" stopIfTrue="1">
       <formula>ISBLANK(I$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="793" priority="795" stopIfTrue="1">
+    <cfRule type="expression" dxfId="794" priority="796" stopIfTrue="1">
       <formula>OR(WEEKDAY(I$3)=1,WEEKDAY(I$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="796" stopIfTrue="1">
+    <cfRule type="expression" dxfId="793" priority="797" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
-    <cfRule type="expression" dxfId="791" priority="788" stopIfTrue="1">
+    <cfRule type="expression" dxfId="792" priority="789" stopIfTrue="1">
       <formula>ISBLANK(K$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="789" stopIfTrue="1">
+    <cfRule type="expression" dxfId="791" priority="790" stopIfTrue="1">
       <formula>OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K8 K10:K11">
-    <cfRule type="expression" dxfId="789" priority="790" stopIfTrue="1">
+    <cfRule type="expression" dxfId="790" priority="791" stopIfTrue="1">
       <formula>ISBLANK(K$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="791" stopIfTrue="1">
+    <cfRule type="expression" dxfId="789" priority="792" stopIfTrue="1">
       <formula>OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="792" stopIfTrue="1">
+    <cfRule type="expression" dxfId="788" priority="793" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12:K109">
-    <cfRule type="expression" dxfId="786" priority="785" stopIfTrue="1">
+    <cfRule type="expression" dxfId="787" priority="786" stopIfTrue="1">
       <formula>ISBLANK(K$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="786" stopIfTrue="1">
+    <cfRule type="expression" dxfId="786" priority="787" stopIfTrue="1">
       <formula>OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="787" stopIfTrue="1">
+    <cfRule type="expression" dxfId="785" priority="788" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L4">
-    <cfRule type="expression" dxfId="783" priority="780" stopIfTrue="1">
+    <cfRule type="expression" dxfId="784" priority="781" stopIfTrue="1">
       <formula>ISBLANK(L$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="781" stopIfTrue="1">
+    <cfRule type="expression" dxfId="783" priority="782" stopIfTrue="1">
       <formula>OR(WEEKDAY(L$3)=1,WEEKDAY(L$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L8 L10:L11">
-    <cfRule type="expression" dxfId="781" priority="782" stopIfTrue="1">
+    <cfRule type="expression" dxfId="782" priority="783" stopIfTrue="1">
       <formula>ISBLANK(L$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="783" stopIfTrue="1">
+    <cfRule type="expression" dxfId="781" priority="784" stopIfTrue="1">
       <formula>OR(WEEKDAY(L$3)=1,WEEKDAY(L$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="779" priority="784" stopIfTrue="1">
+    <cfRule type="expression" dxfId="780" priority="785" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:L109">
-    <cfRule type="expression" dxfId="778" priority="777" stopIfTrue="1">
+    <cfRule type="expression" dxfId="779" priority="778" stopIfTrue="1">
       <formula>ISBLANK(L$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="777" priority="778" stopIfTrue="1">
+    <cfRule type="expression" dxfId="778" priority="779" stopIfTrue="1">
       <formula>OR(WEEKDAY(L$3)=1,WEEKDAY(L$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="779" stopIfTrue="1">
+    <cfRule type="expression" dxfId="777" priority="780" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M4">
-    <cfRule type="expression" dxfId="775" priority="772" stopIfTrue="1">
+    <cfRule type="expression" dxfId="776" priority="773" stopIfTrue="1">
       <formula>ISBLANK(M$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="773" stopIfTrue="1">
+    <cfRule type="expression" dxfId="775" priority="774" stopIfTrue="1">
       <formula>OR(WEEKDAY(M$3)=1,WEEKDAY(M$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M8 M10:M11">
-    <cfRule type="expression" dxfId="773" priority="774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="774" priority="775" stopIfTrue="1">
       <formula>ISBLANK(M$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="773" priority="776" stopIfTrue="1">
       <formula>OR(WEEKDAY(M$3)=1,WEEKDAY(M$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="776" stopIfTrue="1">
+    <cfRule type="expression" dxfId="772" priority="777" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:M109">
-    <cfRule type="expression" dxfId="770" priority="769" stopIfTrue="1">
+    <cfRule type="expression" dxfId="771" priority="770" stopIfTrue="1">
       <formula>ISBLANK(M$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="770" stopIfTrue="1">
+    <cfRule type="expression" dxfId="770" priority="771" stopIfTrue="1">
       <formula>OR(WEEKDAY(M$3)=1,WEEKDAY(M$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="771" stopIfTrue="1">
+    <cfRule type="expression" dxfId="769" priority="772" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
-    <cfRule type="expression" dxfId="767" priority="764" stopIfTrue="1">
+    <cfRule type="expression" dxfId="768" priority="765" stopIfTrue="1">
       <formula>ISBLANK(N$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="765" stopIfTrue="1">
+    <cfRule type="expression" dxfId="767" priority="766" stopIfTrue="1">
       <formula>OR(WEEKDAY(N$3)=1,WEEKDAY(N$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N8 N10:N11">
-    <cfRule type="expression" dxfId="765" priority="766" stopIfTrue="1">
+    <cfRule type="expression" dxfId="766" priority="767" stopIfTrue="1">
       <formula>ISBLANK(N$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="767" stopIfTrue="1">
+    <cfRule type="expression" dxfId="765" priority="768" stopIfTrue="1">
       <formula>OR(WEEKDAY(N$3)=1,WEEKDAY(N$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="768" stopIfTrue="1">
+    <cfRule type="expression" dxfId="764" priority="769" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N109">
-    <cfRule type="expression" dxfId="762" priority="761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="763" priority="762" stopIfTrue="1">
       <formula>ISBLANK(N$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="761" priority="762" stopIfTrue="1">
+    <cfRule type="expression" dxfId="762" priority="763" stopIfTrue="1">
       <formula>OR(WEEKDAY(N$3)=1,WEEKDAY(N$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="763" stopIfTrue="1">
+    <cfRule type="expression" dxfId="761" priority="764" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O4">
-    <cfRule type="expression" dxfId="759" priority="756" stopIfTrue="1">
+    <cfRule type="expression" dxfId="760" priority="757" stopIfTrue="1">
       <formula>ISBLANK(O$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="757" stopIfTrue="1">
+    <cfRule type="expression" dxfId="759" priority="758" stopIfTrue="1">
       <formula>OR(WEEKDAY(O$3)=1,WEEKDAY(O$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:O8 O10:O11">
-    <cfRule type="expression" dxfId="757" priority="758" stopIfTrue="1">
+    <cfRule type="expression" dxfId="758" priority="759" stopIfTrue="1">
       <formula>ISBLANK(O$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="759" stopIfTrue="1">
+    <cfRule type="expression" dxfId="757" priority="760" stopIfTrue="1">
       <formula>OR(WEEKDAY(O$3)=1,WEEKDAY(O$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="755" priority="760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="756" priority="761" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:O109">
-    <cfRule type="expression" dxfId="754" priority="753" stopIfTrue="1">
+    <cfRule type="expression" dxfId="755" priority="754" stopIfTrue="1">
       <formula>ISBLANK(O$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="754" stopIfTrue="1">
+    <cfRule type="expression" dxfId="754" priority="755" stopIfTrue="1">
       <formula>OR(WEEKDAY(O$3)=1,WEEKDAY(O$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="755" stopIfTrue="1">
+    <cfRule type="expression" dxfId="753" priority="756" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P4">
-    <cfRule type="expression" dxfId="751" priority="748" stopIfTrue="1">
+    <cfRule type="expression" dxfId="752" priority="749" stopIfTrue="1">
       <formula>ISBLANK(P$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="749" stopIfTrue="1">
+    <cfRule type="expression" dxfId="751" priority="750" stopIfTrue="1">
       <formula>OR(WEEKDAY(P$3)=1,WEEKDAY(P$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:P8 P10:P11">
-    <cfRule type="expression" dxfId="749" priority="750" stopIfTrue="1">
+    <cfRule type="expression" dxfId="750" priority="751" stopIfTrue="1">
       <formula>ISBLANK(P$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="751" stopIfTrue="1">
+    <cfRule type="expression" dxfId="749" priority="752" stopIfTrue="1">
       <formula>OR(WEEKDAY(P$3)=1,WEEKDAY(P$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="752" stopIfTrue="1">
+    <cfRule type="expression" dxfId="748" priority="753" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:P109">
-    <cfRule type="expression" dxfId="746" priority="745" stopIfTrue="1">
+    <cfRule type="expression" dxfId="747" priority="746" stopIfTrue="1">
       <formula>ISBLANK(P$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="746" stopIfTrue="1">
+    <cfRule type="expression" dxfId="746" priority="747" stopIfTrue="1">
       <formula>OR(WEEKDAY(P$3)=1,WEEKDAY(P$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="747" stopIfTrue="1">
+    <cfRule type="expression" dxfId="745" priority="748" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q4">
-    <cfRule type="expression" dxfId="743" priority="740" stopIfTrue="1">
+    <cfRule type="expression" dxfId="744" priority="741" stopIfTrue="1">
       <formula>ISBLANK(Q$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="741" stopIfTrue="1">
+    <cfRule type="expression" dxfId="743" priority="742" stopIfTrue="1">
       <formula>OR(WEEKDAY(Q$3)=1,WEEKDAY(Q$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q8 Q10:Q11">
-    <cfRule type="expression" dxfId="741" priority="742" stopIfTrue="1">
+    <cfRule type="expression" dxfId="742" priority="743" stopIfTrue="1">
       <formula>ISBLANK(Q$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="743" stopIfTrue="1">
+    <cfRule type="expression" dxfId="741" priority="744" stopIfTrue="1">
       <formula>OR(WEEKDAY(Q$3)=1,WEEKDAY(Q$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="744" stopIfTrue="1">
+    <cfRule type="expression" dxfId="740" priority="745" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q109">
-    <cfRule type="expression" dxfId="738" priority="737" stopIfTrue="1">
+    <cfRule type="expression" dxfId="739" priority="738" stopIfTrue="1">
       <formula>ISBLANK(Q$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="738" stopIfTrue="1">
+    <cfRule type="expression" dxfId="738" priority="739" stopIfTrue="1">
       <formula>OR(WEEKDAY(Q$3)=1,WEEKDAY(Q$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="739" stopIfTrue="1">
+    <cfRule type="expression" dxfId="737" priority="740" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R4">
-    <cfRule type="expression" dxfId="735" priority="732" stopIfTrue="1">
+    <cfRule type="expression" dxfId="736" priority="733" stopIfTrue="1">
       <formula>ISBLANK(R$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="733" stopIfTrue="1">
+    <cfRule type="expression" dxfId="735" priority="734" stopIfTrue="1">
       <formula>OR(WEEKDAY(R$3)=1,WEEKDAY(R$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:R8 R10:R11">
-    <cfRule type="expression" dxfId="733" priority="734" stopIfTrue="1">
+    <cfRule type="expression" dxfId="734" priority="735" stopIfTrue="1">
       <formula>ISBLANK(R$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="735" stopIfTrue="1">
+    <cfRule type="expression" dxfId="733" priority="736" stopIfTrue="1">
       <formula>OR(WEEKDAY(R$3)=1,WEEKDAY(R$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="736" stopIfTrue="1">
+    <cfRule type="expression" dxfId="732" priority="737" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:R109">
-    <cfRule type="expression" dxfId="730" priority="729" stopIfTrue="1">
+    <cfRule type="expression" dxfId="731" priority="730" stopIfTrue="1">
       <formula>ISBLANK(R$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="730" stopIfTrue="1">
+    <cfRule type="expression" dxfId="730" priority="731" stopIfTrue="1">
       <formula>OR(WEEKDAY(R$3)=1,WEEKDAY(R$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="731" stopIfTrue="1">
+    <cfRule type="expression" dxfId="729" priority="732" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S4">
-    <cfRule type="expression" dxfId="727" priority="724" stopIfTrue="1">
+    <cfRule type="expression" dxfId="728" priority="725" stopIfTrue="1">
       <formula>ISBLANK(S$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="725" stopIfTrue="1">
+    <cfRule type="expression" dxfId="727" priority="726" stopIfTrue="1">
       <formula>OR(WEEKDAY(S$3)=1,WEEKDAY(S$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S8 S10:S11">
-    <cfRule type="expression" dxfId="725" priority="726" stopIfTrue="1">
+    <cfRule type="expression" dxfId="726" priority="727" stopIfTrue="1">
       <formula>ISBLANK(S$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="727" stopIfTrue="1">
+    <cfRule type="expression" dxfId="725" priority="728" stopIfTrue="1">
       <formula>OR(WEEKDAY(S$3)=1,WEEKDAY(S$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="728" stopIfTrue="1">
+    <cfRule type="expression" dxfId="724" priority="729" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:S109">
-    <cfRule type="expression" dxfId="722" priority="721" stopIfTrue="1">
+    <cfRule type="expression" dxfId="723" priority="722" stopIfTrue="1">
       <formula>ISBLANK(S$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="722" stopIfTrue="1">
+    <cfRule type="expression" dxfId="722" priority="723" stopIfTrue="1">
       <formula>OR(WEEKDAY(S$3)=1,WEEKDAY(S$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="723" stopIfTrue="1">
+    <cfRule type="expression" dxfId="721" priority="724" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T4">
-    <cfRule type="expression" dxfId="719" priority="716" stopIfTrue="1">
+    <cfRule type="expression" dxfId="720" priority="717" stopIfTrue="1">
       <formula>ISBLANK(T$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="717" stopIfTrue="1">
+    <cfRule type="expression" dxfId="719" priority="718" stopIfTrue="1">
       <formula>OR(WEEKDAY(T$3)=1,WEEKDAY(T$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:T8 T10:T11">
-    <cfRule type="expression" dxfId="717" priority="718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="718" priority="719" stopIfTrue="1">
       <formula>ISBLANK(T$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="717" priority="720" stopIfTrue="1">
       <formula>OR(WEEKDAY(T$3)=1,WEEKDAY(T$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="716" priority="721" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12:T109">
-    <cfRule type="expression" dxfId="714" priority="713" stopIfTrue="1">
+    <cfRule type="expression" dxfId="715" priority="714" stopIfTrue="1">
       <formula>ISBLANK(T$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="714" stopIfTrue="1">
+    <cfRule type="expression" dxfId="714" priority="715" stopIfTrue="1">
       <formula>OR(WEEKDAY(T$3)=1,WEEKDAY(T$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="715" stopIfTrue="1">
+    <cfRule type="expression" dxfId="713" priority="716" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U4">
-    <cfRule type="expression" dxfId="711" priority="708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="712" priority="709" stopIfTrue="1">
       <formula>ISBLANK(U$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="711" priority="710" stopIfTrue="1">
       <formula>OR(WEEKDAY(U$3)=1,WEEKDAY(U$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U8 U10:U11">
-    <cfRule type="expression" dxfId="709" priority="710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="710" priority="711" stopIfTrue="1">
       <formula>ISBLANK(U$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="709" priority="712" stopIfTrue="1">
       <formula>OR(WEEKDAY(U$3)=1,WEEKDAY(U$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="712" stopIfTrue="1">
+    <cfRule type="expression" dxfId="708" priority="713" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:U109">
-    <cfRule type="expression" dxfId="706" priority="705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="707" priority="706" stopIfTrue="1">
       <formula>ISBLANK(U$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="706" priority="707" stopIfTrue="1">
       <formula>OR(WEEKDAY(U$3)=1,WEEKDAY(U$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="705" priority="708" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V4">
-    <cfRule type="expression" dxfId="703" priority="700" stopIfTrue="1">
+    <cfRule type="expression" dxfId="704" priority="701" stopIfTrue="1">
       <formula>ISBLANK(V$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="703" priority="702" stopIfTrue="1">
       <formula>OR(WEEKDAY(V$3)=1,WEEKDAY(V$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:V8 V10:V11">
-    <cfRule type="expression" dxfId="701" priority="702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="702" priority="703" stopIfTrue="1">
       <formula>ISBLANK(V$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="701" priority="704" stopIfTrue="1">
       <formula>OR(WEEKDAY(V$3)=1,WEEKDAY(V$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="700" priority="705" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12:V109">
-    <cfRule type="expression" dxfId="698" priority="697" stopIfTrue="1">
+    <cfRule type="expression" dxfId="699" priority="698" stopIfTrue="1">
       <formula>ISBLANK(V$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="698" stopIfTrue="1">
+    <cfRule type="expression" dxfId="698" priority="699" stopIfTrue="1">
       <formula>OR(WEEKDAY(V$3)=1,WEEKDAY(V$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="699" stopIfTrue="1">
+    <cfRule type="expression" dxfId="697" priority="700" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W4">
-    <cfRule type="expression" dxfId="695" priority="692" stopIfTrue="1">
+    <cfRule type="expression" dxfId="696" priority="693" stopIfTrue="1">
       <formula>ISBLANK(W$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="693" stopIfTrue="1">
+    <cfRule type="expression" dxfId="695" priority="694" stopIfTrue="1">
       <formula>OR(WEEKDAY(W$3)=1,WEEKDAY(W$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5:W8 W10:W11">
-    <cfRule type="expression" dxfId="693" priority="694" stopIfTrue="1">
+    <cfRule type="expression" dxfId="694" priority="695" stopIfTrue="1">
       <formula>ISBLANK(W$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="695" stopIfTrue="1">
+    <cfRule type="expression" dxfId="693" priority="696" stopIfTrue="1">
       <formula>OR(WEEKDAY(W$3)=1,WEEKDAY(W$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="696" stopIfTrue="1">
+    <cfRule type="expression" dxfId="692" priority="697" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W109">
-    <cfRule type="expression" dxfId="690" priority="689" stopIfTrue="1">
+    <cfRule type="expression" dxfId="691" priority="690" stopIfTrue="1">
       <formula>ISBLANK(W$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="690" stopIfTrue="1">
+    <cfRule type="expression" dxfId="690" priority="691" stopIfTrue="1">
       <formula>OR(WEEKDAY(W$3)=1,WEEKDAY(W$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="691" stopIfTrue="1">
+    <cfRule type="expression" dxfId="689" priority="692" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X4">
-    <cfRule type="expression" dxfId="687" priority="684" stopIfTrue="1">
+    <cfRule type="expression" dxfId="688" priority="685" stopIfTrue="1">
       <formula>ISBLANK(X$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="685" stopIfTrue="1">
+    <cfRule type="expression" dxfId="687" priority="686" stopIfTrue="1">
       <formula>OR(WEEKDAY(X$3)=1,WEEKDAY(X$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5:X8 X10:X11">
-    <cfRule type="expression" dxfId="685" priority="686" stopIfTrue="1">
+    <cfRule type="expression" dxfId="686" priority="687" stopIfTrue="1">
       <formula>ISBLANK(X$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="687" stopIfTrue="1">
+    <cfRule type="expression" dxfId="685" priority="688" stopIfTrue="1">
       <formula>OR(WEEKDAY(X$3)=1,WEEKDAY(X$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="688" stopIfTrue="1">
+    <cfRule type="expression" dxfId="684" priority="689" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X109">
-    <cfRule type="expression" dxfId="682" priority="681" stopIfTrue="1">
+    <cfRule type="expression" dxfId="683" priority="682" stopIfTrue="1">
       <formula>ISBLANK(X$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="682" stopIfTrue="1">
+    <cfRule type="expression" dxfId="682" priority="683" stopIfTrue="1">
       <formula>OR(WEEKDAY(X$3)=1,WEEKDAY(X$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="683" stopIfTrue="1">
+    <cfRule type="expression" dxfId="681" priority="684" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Y4">
-    <cfRule type="expression" dxfId="679" priority="676" stopIfTrue="1">
+    <cfRule type="expression" dxfId="680" priority="677" stopIfTrue="1">
       <formula>ISBLANK(Y$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="677" stopIfTrue="1">
+    <cfRule type="expression" dxfId="679" priority="678" stopIfTrue="1">
       <formula>OR(WEEKDAY(Y$3)=1,WEEKDAY(Y$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5:Y8 Y10:Y11">
-    <cfRule type="expression" dxfId="677" priority="678" stopIfTrue="1">
+    <cfRule type="expression" dxfId="678" priority="679" stopIfTrue="1">
       <formula>ISBLANK(Y$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="679" stopIfTrue="1">
+    <cfRule type="expression" dxfId="677" priority="680" stopIfTrue="1">
       <formula>OR(WEEKDAY(Y$3)=1,WEEKDAY(Y$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="680" stopIfTrue="1">
+    <cfRule type="expression" dxfId="676" priority="681" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Y109">
-    <cfRule type="expression" dxfId="674" priority="673" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="674" stopIfTrue="1">
       <formula>ISBLANK(Y$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="674" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="675" stopIfTrue="1">
       <formula>OR(WEEKDAY(Y$3)=1,WEEKDAY(Y$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="675" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="676" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z4">
-    <cfRule type="expression" dxfId="671" priority="668" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="669" stopIfTrue="1">
       <formula>ISBLANK(Z$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="670" stopIfTrue="1">
       <formula>OR(WEEKDAY(Z$3)=1,WEEKDAY(Z$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:Z8 Z10:Z11">
-    <cfRule type="expression" dxfId="669" priority="670" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="671" stopIfTrue="1">
       <formula>ISBLANK(Z$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="671" stopIfTrue="1">
+    <cfRule type="expression" dxfId="669" priority="672" stopIfTrue="1">
       <formula>OR(WEEKDAY(Z$3)=1,WEEKDAY(Z$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="672" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="673" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12:Z109">
-    <cfRule type="expression" dxfId="666" priority="665" stopIfTrue="1">
+    <cfRule type="expression" dxfId="667" priority="666" stopIfTrue="1">
       <formula>ISBLANK(Z$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="666" stopIfTrue="1">
+    <cfRule type="expression" dxfId="666" priority="667" stopIfTrue="1">
       <formula>OR(WEEKDAY(Z$3)=1,WEEKDAY(Z$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="667" stopIfTrue="1">
+    <cfRule type="expression" dxfId="665" priority="668" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA4">
-    <cfRule type="expression" dxfId="663" priority="660" stopIfTrue="1">
+    <cfRule type="expression" dxfId="664" priority="661" stopIfTrue="1">
       <formula>ISBLANK(AA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="661" stopIfTrue="1">
+    <cfRule type="expression" dxfId="663" priority="662" stopIfTrue="1">
       <formula>OR(WEEKDAY(AA$3)=1,WEEKDAY(AA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA8 AA10:AA11">
-    <cfRule type="expression" dxfId="661" priority="662" stopIfTrue="1">
+    <cfRule type="expression" dxfId="662" priority="663" stopIfTrue="1">
       <formula>ISBLANK(AA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="661" priority="664" stopIfTrue="1">
       <formula>OR(WEEKDAY(AA$3)=1,WEEKDAY(AA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="664" stopIfTrue="1">
+    <cfRule type="expression" dxfId="660" priority="665" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA109">
-    <cfRule type="expression" dxfId="658" priority="657" stopIfTrue="1">
+    <cfRule type="expression" dxfId="659" priority="658" stopIfTrue="1">
       <formula>ISBLANK(AA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="658" stopIfTrue="1">
+    <cfRule type="expression" dxfId="658" priority="659" stopIfTrue="1">
       <formula>OR(WEEKDAY(AA$3)=1,WEEKDAY(AA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="659" stopIfTrue="1">
+    <cfRule type="expression" dxfId="657" priority="660" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB4">
-    <cfRule type="expression" dxfId="655" priority="652" stopIfTrue="1">
+    <cfRule type="expression" dxfId="656" priority="653" stopIfTrue="1">
       <formula>ISBLANK(AB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="653" stopIfTrue="1">
+    <cfRule type="expression" dxfId="655" priority="654" stopIfTrue="1">
       <formula>OR(WEEKDAY(AB$3)=1,WEEKDAY(AB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB8 AB10:AB11">
-    <cfRule type="expression" dxfId="653" priority="654" stopIfTrue="1">
+    <cfRule type="expression" dxfId="654" priority="655" stopIfTrue="1">
       <formula>ISBLANK(AB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="655" stopIfTrue="1">
+    <cfRule type="expression" dxfId="653" priority="656" stopIfTrue="1">
       <formula>OR(WEEKDAY(AB$3)=1,WEEKDAY(AB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="656" stopIfTrue="1">
+    <cfRule type="expression" dxfId="652" priority="657" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12:AB109">
-    <cfRule type="expression" dxfId="650" priority="649" stopIfTrue="1">
+    <cfRule type="expression" dxfId="651" priority="650" stopIfTrue="1">
       <formula>ISBLANK(AB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="650" stopIfTrue="1">
+    <cfRule type="expression" dxfId="650" priority="651" stopIfTrue="1">
       <formula>OR(WEEKDAY(AB$3)=1,WEEKDAY(AB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="651" stopIfTrue="1">
+    <cfRule type="expression" dxfId="649" priority="652" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC4">
-    <cfRule type="expression" dxfId="647" priority="644" stopIfTrue="1">
+    <cfRule type="expression" dxfId="648" priority="645" stopIfTrue="1">
       <formula>ISBLANK(AC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="645" stopIfTrue="1">
+    <cfRule type="expression" dxfId="647" priority="646" stopIfTrue="1">
       <formula>OR(WEEKDAY(AC$3)=1,WEEKDAY(AC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5:AC8 AC10:AC11">
-    <cfRule type="expression" dxfId="645" priority="646" stopIfTrue="1">
+    <cfRule type="expression" dxfId="646" priority="647" stopIfTrue="1">
       <formula>ISBLANK(AC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="647" stopIfTrue="1">
+    <cfRule type="expression" dxfId="645" priority="648" stopIfTrue="1">
       <formula>OR(WEEKDAY(AC$3)=1,WEEKDAY(AC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="648" stopIfTrue="1">
+    <cfRule type="expression" dxfId="644" priority="649" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12:AC109">
-    <cfRule type="expression" dxfId="642" priority="641" stopIfTrue="1">
+    <cfRule type="expression" dxfId="643" priority="642" stopIfTrue="1">
       <formula>ISBLANK(AC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="642" stopIfTrue="1">
+    <cfRule type="expression" dxfId="642" priority="643" stopIfTrue="1">
       <formula>OR(WEEKDAY(AC$3)=1,WEEKDAY(AC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="643" stopIfTrue="1">
+    <cfRule type="expression" dxfId="641" priority="644" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD4">
-    <cfRule type="expression" dxfId="639" priority="636" stopIfTrue="1">
+    <cfRule type="expression" dxfId="640" priority="637" stopIfTrue="1">
       <formula>ISBLANK(AD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="638" stopIfTrue="1">
       <formula>OR(WEEKDAY(AD$3)=1,WEEKDAY(AD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5:AD8 AD10:AD11">
-    <cfRule type="expression" dxfId="637" priority="638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="638" priority="639" stopIfTrue="1">
       <formula>ISBLANK(AD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="640" stopIfTrue="1">
       <formula>OR(WEEKDAY(AD$3)=1,WEEKDAY(AD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="640" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="641" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD12:AD109">
-    <cfRule type="expression" dxfId="634" priority="633" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="634" stopIfTrue="1">
       <formula>ISBLANK(AD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="634" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="635" stopIfTrue="1">
       <formula>OR(WEEKDAY(AD$3)=1,WEEKDAY(AD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="635" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="636" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE4">
-    <cfRule type="expression" dxfId="631" priority="628" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="629" stopIfTrue="1">
       <formula>ISBLANK(AE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="629" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="630" stopIfTrue="1">
       <formula>OR(WEEKDAY(AE$3)=1,WEEKDAY(AE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AE8 AE10:AE11">
-    <cfRule type="expression" dxfId="629" priority="630" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="631" stopIfTrue="1">
       <formula>ISBLANK(AE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="631" stopIfTrue="1">
+    <cfRule type="expression" dxfId="629" priority="632" stopIfTrue="1">
       <formula>OR(WEEKDAY(AE$3)=1,WEEKDAY(AE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="632" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="633" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:AE109">
-    <cfRule type="expression" dxfId="626" priority="625" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="626" stopIfTrue="1">
       <formula>ISBLANK(AE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="626" stopIfTrue="1">
+    <cfRule type="expression" dxfId="626" priority="627" stopIfTrue="1">
       <formula>OR(WEEKDAY(AE$3)=1,WEEKDAY(AE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="627" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="628" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AF4">
-    <cfRule type="expression" dxfId="623" priority="620" stopIfTrue="1">
+    <cfRule type="expression" dxfId="624" priority="621" stopIfTrue="1">
       <formula>ISBLANK(AF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="621" stopIfTrue="1">
+    <cfRule type="expression" dxfId="623" priority="622" stopIfTrue="1">
       <formula>OR(WEEKDAY(AF$3)=1,WEEKDAY(AF$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AF8 AF10:AF11">
-    <cfRule type="expression" dxfId="621" priority="622" stopIfTrue="1">
+    <cfRule type="expression" dxfId="622" priority="623" stopIfTrue="1">
       <formula>ISBLANK(AF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="623" stopIfTrue="1">
+    <cfRule type="expression" dxfId="621" priority="624" stopIfTrue="1">
       <formula>OR(WEEKDAY(AF$3)=1,WEEKDAY(AF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="624" stopIfTrue="1">
+    <cfRule type="expression" dxfId="620" priority="625" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF12:AF109">
-    <cfRule type="expression" dxfId="618" priority="617" stopIfTrue="1">
+    <cfRule type="expression" dxfId="619" priority="618" stopIfTrue="1">
       <formula>ISBLANK(AF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="618" stopIfTrue="1">
+    <cfRule type="expression" dxfId="618" priority="619" stopIfTrue="1">
       <formula>OR(WEEKDAY(AF$3)=1,WEEKDAY(AF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="619" stopIfTrue="1">
+    <cfRule type="expression" dxfId="617" priority="620" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AG4">
-    <cfRule type="expression" dxfId="615" priority="612" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="613" stopIfTrue="1">
       <formula>ISBLANK(AG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="613" stopIfTrue="1">
+    <cfRule type="expression" dxfId="615" priority="614" stopIfTrue="1">
       <formula>OR(WEEKDAY(AG$3)=1,WEEKDAY(AG$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG8 AG10:AG11">
-    <cfRule type="expression" dxfId="613" priority="614" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="615" stopIfTrue="1">
       <formula>ISBLANK(AG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="615" stopIfTrue="1">
+    <cfRule type="expression" dxfId="613" priority="616" stopIfTrue="1">
       <formula>OR(WEEKDAY(AG$3)=1,WEEKDAY(AG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="616" stopIfTrue="1">
+    <cfRule type="expression" dxfId="612" priority="617" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AG109">
-    <cfRule type="expression" dxfId="610" priority="609" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="610" stopIfTrue="1">
       <formula>ISBLANK(AG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="610" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="611" stopIfTrue="1">
       <formula>OR(WEEKDAY(AG$3)=1,WEEKDAY(AG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="611" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="612" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AH4">
-    <cfRule type="expression" dxfId="607" priority="604" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="605" stopIfTrue="1">
       <formula>ISBLANK(AH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="605" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="606" stopIfTrue="1">
       <formula>OR(WEEKDAY(AH$3)=1,WEEKDAY(AH$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5:AH8 AH10:AH11">
-    <cfRule type="expression" dxfId="605" priority="606" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="607" stopIfTrue="1">
       <formula>ISBLANK(AH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="607" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="608" stopIfTrue="1">
       <formula>OR(WEEKDAY(AH$3)=1,WEEKDAY(AH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="608" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="609" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12:AH109">
-    <cfRule type="expression" dxfId="602" priority="601" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="602" stopIfTrue="1">
       <formula>ISBLANK(AH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="602" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="603" stopIfTrue="1">
       <formula>OR(WEEKDAY(AH$3)=1,WEEKDAY(AH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="603" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="604" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI3:AI4">
-    <cfRule type="expression" dxfId="599" priority="596" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="597" stopIfTrue="1">
       <formula>ISBLANK(AI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="597" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="598" stopIfTrue="1">
       <formula>OR(WEEKDAY(AI$3)=1,WEEKDAY(AI$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI5:AI8 AI10:AI11">
-    <cfRule type="expression" dxfId="597" priority="598" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="599" stopIfTrue="1">
       <formula>ISBLANK(AI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="599" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="600" stopIfTrue="1">
       <formula>OR(WEEKDAY(AI$3)=1,WEEKDAY(AI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="600" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="601" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI12:AI109">
-    <cfRule type="expression" dxfId="594" priority="593" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="594" stopIfTrue="1">
       <formula>ISBLANK(AI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="594" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="595" stopIfTrue="1">
       <formula>OR(WEEKDAY(AI$3)=1,WEEKDAY(AI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="595" stopIfTrue="1">
+    <cfRule type="expression" dxfId="593" priority="596" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AJ4">
-    <cfRule type="expression" dxfId="591" priority="588" stopIfTrue="1">
+    <cfRule type="expression" dxfId="592" priority="589" stopIfTrue="1">
       <formula>ISBLANK(AJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="590" stopIfTrue="1">
       <formula>OR(WEEKDAY(AJ$3)=1,WEEKDAY(AJ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ5:AJ8 AJ10:AJ11">
-    <cfRule type="expression" dxfId="589" priority="590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="591" stopIfTrue="1">
       <formula>ISBLANK(AJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="591" stopIfTrue="1">
+    <cfRule type="expression" dxfId="589" priority="592" stopIfTrue="1">
       <formula>OR(WEEKDAY(AJ$3)=1,WEEKDAY(AJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="588" priority="593" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ109">
-    <cfRule type="expression" dxfId="586" priority="585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="586" stopIfTrue="1">
       <formula>ISBLANK(AJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="586" stopIfTrue="1">
+    <cfRule type="expression" dxfId="586" priority="587" stopIfTrue="1">
       <formula>OR(WEEKDAY(AJ$3)=1,WEEKDAY(AJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="587" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="588" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3:AK4">
-    <cfRule type="expression" dxfId="583" priority="580" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="581" stopIfTrue="1">
       <formula>ISBLANK(AK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="582" stopIfTrue="1">
       <formula>OR(WEEKDAY(AK$3)=1,WEEKDAY(AK$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:AK8 AK10:AK11">
-    <cfRule type="expression" dxfId="581" priority="582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="583" stopIfTrue="1">
       <formula>ISBLANK(AK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="583" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="584" stopIfTrue="1">
       <formula>OR(WEEKDAY(AK$3)=1,WEEKDAY(AK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="584" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="585" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK12:AK109">
-    <cfRule type="expression" dxfId="578" priority="577" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="578" stopIfTrue="1">
       <formula>ISBLANK(AK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="578" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="579" stopIfTrue="1">
       <formula>OR(WEEKDAY(AK$3)=1,WEEKDAY(AK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="579" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="580" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3:AL4">
-    <cfRule type="expression" dxfId="575" priority="572" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="573" stopIfTrue="1">
       <formula>ISBLANK(AL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="573" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="574" stopIfTrue="1">
       <formula>OR(WEEKDAY(AL$3)=1,WEEKDAY(AL$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL5:AL8 AL10:AL11">
-    <cfRule type="expression" dxfId="573" priority="574" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="575" stopIfTrue="1">
       <formula>ISBLANK(AL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="575" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="576" stopIfTrue="1">
       <formula>OR(WEEKDAY(AL$3)=1,WEEKDAY(AL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="576" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="577" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL12:AL109">
-    <cfRule type="expression" dxfId="570" priority="569" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="570" stopIfTrue="1">
       <formula>ISBLANK(AL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="570" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="571" stopIfTrue="1">
       <formula>OR(WEEKDAY(AL$3)=1,WEEKDAY(AL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="571" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="572" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM3:AM4">
-    <cfRule type="expression" dxfId="567" priority="564" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="565" stopIfTrue="1">
       <formula>ISBLANK(AM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="565" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="566" stopIfTrue="1">
       <formula>OR(WEEKDAY(AM$3)=1,WEEKDAY(AM$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM5:AM8 AM10:AM11">
-    <cfRule type="expression" dxfId="565" priority="566" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="567" stopIfTrue="1">
       <formula>ISBLANK(AM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="567" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="568" stopIfTrue="1">
       <formula>OR(WEEKDAY(AM$3)=1,WEEKDAY(AM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="568" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="569" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM12:AM109">
-    <cfRule type="expression" dxfId="562" priority="561" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="562" stopIfTrue="1">
       <formula>ISBLANK(AM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="562" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="563" stopIfTrue="1">
       <formula>OR(WEEKDAY(AM$3)=1,WEEKDAY(AM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="563" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="564" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN3:AN4">
-    <cfRule type="expression" dxfId="559" priority="556" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="557" stopIfTrue="1">
       <formula>ISBLANK(AN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="557" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="558" stopIfTrue="1">
       <formula>OR(WEEKDAY(AN$3)=1,WEEKDAY(AN$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN5:AN8 AN10:AN11">
-    <cfRule type="expression" dxfId="557" priority="558" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="559" stopIfTrue="1">
       <formula>ISBLANK(AN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="559" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="560" stopIfTrue="1">
       <formula>OR(WEEKDAY(AN$3)=1,WEEKDAY(AN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="560" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="561" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN12:AN109">
-    <cfRule type="expression" dxfId="554" priority="553" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="554" stopIfTrue="1">
       <formula>ISBLANK(AN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="554" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="555" stopIfTrue="1">
       <formula>OR(WEEKDAY(AN$3)=1,WEEKDAY(AN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="555" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="556" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO3:AO4">
-    <cfRule type="expression" dxfId="551" priority="548" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="549" stopIfTrue="1">
       <formula>ISBLANK(AO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="549" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="550" stopIfTrue="1">
       <formula>OR(WEEKDAY(AO$3)=1,WEEKDAY(AO$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AO8 AO10:AO11">
-    <cfRule type="expression" dxfId="549" priority="550" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="551" stopIfTrue="1">
       <formula>ISBLANK(AO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="551" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="552" stopIfTrue="1">
       <formula>OR(WEEKDAY(AO$3)=1,WEEKDAY(AO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="552" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="553" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO12:AO109">
-    <cfRule type="expression" dxfId="546" priority="545" stopIfTrue="1">
+    <cfRule type="expression" dxfId="547" priority="546" stopIfTrue="1">
       <formula>ISBLANK(AO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="546" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="547" stopIfTrue="1">
       <formula>OR(WEEKDAY(AO$3)=1,WEEKDAY(AO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="547" stopIfTrue="1">
+    <cfRule type="expression" dxfId="545" priority="548" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP3:AP4">
-    <cfRule type="expression" dxfId="543" priority="540" stopIfTrue="1">
+    <cfRule type="expression" dxfId="544" priority="541" stopIfTrue="1">
       <formula>ISBLANK(AP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="541" stopIfTrue="1">
+    <cfRule type="expression" dxfId="543" priority="542" stopIfTrue="1">
       <formula>OR(WEEKDAY(AP$3)=1,WEEKDAY(AP$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP5:AP8 AP10:AP11">
-    <cfRule type="expression" dxfId="541" priority="542" stopIfTrue="1">
+    <cfRule type="expression" dxfId="542" priority="543" stopIfTrue="1">
       <formula>ISBLANK(AP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="543" stopIfTrue="1">
+    <cfRule type="expression" dxfId="541" priority="544" stopIfTrue="1">
       <formula>OR(WEEKDAY(AP$3)=1,WEEKDAY(AP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="544" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="545" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12:AP109">
-    <cfRule type="expression" dxfId="538" priority="537" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="538" stopIfTrue="1">
       <formula>ISBLANK(AP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="538" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="539" stopIfTrue="1">
       <formula>OR(WEEKDAY(AP$3)=1,WEEKDAY(AP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="539" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="540" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ3:AQ4">
-    <cfRule type="expression" dxfId="535" priority="532" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="533" stopIfTrue="1">
       <formula>ISBLANK(AQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="533" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="534" stopIfTrue="1">
       <formula>OR(WEEKDAY(AQ$3)=1,WEEKDAY(AQ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ5:AQ8 AQ10:AQ11">
-    <cfRule type="expression" dxfId="533" priority="534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="535" stopIfTrue="1">
       <formula>ISBLANK(AQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="536" stopIfTrue="1">
       <formula>OR(WEEKDAY(AQ$3)=1,WEEKDAY(AQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="537" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ12:AQ109">
-    <cfRule type="expression" dxfId="530" priority="529" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="530" stopIfTrue="1">
       <formula>ISBLANK(AQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="530" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="531" stopIfTrue="1">
       <formula>OR(WEEKDAY(AQ$3)=1,WEEKDAY(AQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="531" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="532" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3:AR4">
-    <cfRule type="expression" dxfId="527" priority="524" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="525" stopIfTrue="1">
       <formula>ISBLANK(AR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="525" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="526" stopIfTrue="1">
       <formula>OR(WEEKDAY(AR$3)=1,WEEKDAY(AR$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AR8 AR10:AR11">
-    <cfRule type="expression" dxfId="525" priority="526" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="527" stopIfTrue="1">
       <formula>ISBLANK(AR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="527" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="528" stopIfTrue="1">
       <formula>OR(WEEKDAY(AR$3)=1,WEEKDAY(AR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="528" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="529" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR12:AR109">
-    <cfRule type="expression" dxfId="522" priority="521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="522" stopIfTrue="1">
       <formula>ISBLANK(AR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="522" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="523" stopIfTrue="1">
       <formula>OR(WEEKDAY(AR$3)=1,WEEKDAY(AR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="523" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="524" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS3:AS4">
-    <cfRule type="expression" dxfId="519" priority="516" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="517" stopIfTrue="1">
       <formula>ISBLANK(AS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="517" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="518" stopIfTrue="1">
       <formula>OR(WEEKDAY(AS$3)=1,WEEKDAY(AS$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS5:AS8 AS10:AS11">
-    <cfRule type="expression" dxfId="517" priority="518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="519" stopIfTrue="1">
       <formula>ISBLANK(AS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="520" stopIfTrue="1">
       <formula>OR(WEEKDAY(AS$3)=1,WEEKDAY(AS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="521" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS12:AS109">
-    <cfRule type="expression" dxfId="514" priority="513" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="514" stopIfTrue="1">
       <formula>ISBLANK(AS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="514" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="515" stopIfTrue="1">
       <formula>OR(WEEKDAY(AS$3)=1,WEEKDAY(AS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="515" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="516" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT3:AT4">
-    <cfRule type="expression" dxfId="511" priority="508" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="509" stopIfTrue="1">
       <formula>ISBLANK(AT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="509" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="510" stopIfTrue="1">
       <formula>OR(WEEKDAY(AT$3)=1,WEEKDAY(AT$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT5:AT8 AT10:AT11">
-    <cfRule type="expression" dxfId="509" priority="510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="511" stopIfTrue="1">
       <formula>ISBLANK(AT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="512" stopIfTrue="1">
       <formula>OR(WEEKDAY(AT$3)=1,WEEKDAY(AT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="513" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT12:AT109">
-    <cfRule type="expression" dxfId="506" priority="505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="506" stopIfTrue="1">
       <formula>ISBLANK(AT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="507" stopIfTrue="1">
       <formula>OR(WEEKDAY(AT$3)=1,WEEKDAY(AT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="508" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU3:AU4">
-    <cfRule type="expression" dxfId="503" priority="500" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="501" stopIfTrue="1">
       <formula>ISBLANK(AU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="501" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="502" stopIfTrue="1">
       <formula>OR(WEEKDAY(AU$3)=1,WEEKDAY(AU$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AU8 AU10:AU11">
-    <cfRule type="expression" dxfId="501" priority="502" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="503" stopIfTrue="1">
       <formula>ISBLANK(AU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="503" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="504" stopIfTrue="1">
       <formula>OR(WEEKDAY(AU$3)=1,WEEKDAY(AU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="504" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="505" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU12:AU109">
-    <cfRule type="expression" dxfId="498" priority="497" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="498" stopIfTrue="1">
       <formula>ISBLANK(AU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="498" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="499" stopIfTrue="1">
       <formula>OR(WEEKDAY(AU$3)=1,WEEKDAY(AU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="499" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="500" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV3:AV4">
-    <cfRule type="expression" dxfId="495" priority="492" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="493" stopIfTrue="1">
       <formula>ISBLANK(AV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="493" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="494" stopIfTrue="1">
       <formula>OR(WEEKDAY(AV$3)=1,WEEKDAY(AV$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV5:AV8 AV10:AV11">
-    <cfRule type="expression" dxfId="493" priority="494" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="495" stopIfTrue="1">
       <formula>ISBLANK(AV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="495" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="496" stopIfTrue="1">
       <formula>OR(WEEKDAY(AV$3)=1,WEEKDAY(AV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="496" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="497" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV12:AV109">
-    <cfRule type="expression" dxfId="490" priority="489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="490" stopIfTrue="1">
       <formula>ISBLANK(AV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="491" stopIfTrue="1">
       <formula>OR(WEEKDAY(AV$3)=1,WEEKDAY(AV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="491" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="492" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW3:AW4">
-    <cfRule type="expression" dxfId="487" priority="484" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="485" stopIfTrue="1">
       <formula>ISBLANK(AW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="485" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="486" stopIfTrue="1">
       <formula>OR(WEEKDAY(AW$3)=1,WEEKDAY(AW$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW5:AW8 AW10:AW11">
-    <cfRule type="expression" dxfId="485" priority="486" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="487" stopIfTrue="1">
       <formula>ISBLANK(AW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="487" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="488" stopIfTrue="1">
       <formula>OR(WEEKDAY(AW$3)=1,WEEKDAY(AW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="488" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="489" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW12:AW109">
-    <cfRule type="expression" dxfId="482" priority="481" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="482" stopIfTrue="1">
       <formula>ISBLANK(AW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="482" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="483" stopIfTrue="1">
       <formula>OR(WEEKDAY(AW$3)=1,WEEKDAY(AW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="483" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="484" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX3:AX4">
-    <cfRule type="expression" dxfId="479" priority="476" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="477" stopIfTrue="1">
       <formula>ISBLANK(AX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="477" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="478" stopIfTrue="1">
       <formula>OR(WEEKDAY(AX$3)=1,WEEKDAY(AX$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX5:AX8 AX10:AX11">
-    <cfRule type="expression" dxfId="477" priority="478" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="479" stopIfTrue="1">
       <formula>ISBLANK(AX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="479" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="480" stopIfTrue="1">
       <formula>OR(WEEKDAY(AX$3)=1,WEEKDAY(AX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="480" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="481" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX12:AX109">
-    <cfRule type="expression" dxfId="474" priority="473" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="474" stopIfTrue="1">
       <formula>ISBLANK(AX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="474" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="475" stopIfTrue="1">
       <formula>OR(WEEKDAY(AX$3)=1,WEEKDAY(AX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="475" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="476" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY3:AY4">
-    <cfRule type="expression" dxfId="471" priority="468" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="469" stopIfTrue="1">
       <formula>ISBLANK(AY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="469" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="470" stopIfTrue="1">
       <formula>OR(WEEKDAY(AY$3)=1,WEEKDAY(AY$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY5:AY8 AY10:AY11">
-    <cfRule type="expression" dxfId="469" priority="470" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="471" stopIfTrue="1">
       <formula>ISBLANK(AY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="471" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="472" stopIfTrue="1">
       <formula>OR(WEEKDAY(AY$3)=1,WEEKDAY(AY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="472" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="473" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY12:AY109">
-    <cfRule type="expression" dxfId="466" priority="465" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="466" stopIfTrue="1">
       <formula>ISBLANK(AY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="466" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="467" stopIfTrue="1">
       <formula>OR(WEEKDAY(AY$3)=1,WEEKDAY(AY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="467" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="468" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ3:AZ4">
-    <cfRule type="expression" dxfId="463" priority="460" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="461" stopIfTrue="1">
       <formula>ISBLANK(AZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="461" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="462" stopIfTrue="1">
       <formula>OR(WEEKDAY(AZ$3)=1,WEEKDAY(AZ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ5:AZ8 AZ10:AZ11">
-    <cfRule type="expression" dxfId="461" priority="462" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="463" stopIfTrue="1">
       <formula>ISBLANK(AZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="463" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="464" stopIfTrue="1">
       <formula>OR(WEEKDAY(AZ$3)=1,WEEKDAY(AZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="464" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="465" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ12:AZ109">
-    <cfRule type="expression" dxfId="458" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="458" stopIfTrue="1">
       <formula>ISBLANK(AZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="458" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="459" stopIfTrue="1">
       <formula>OR(WEEKDAY(AZ$3)=1,WEEKDAY(AZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="459" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="460" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA3:BA4">
-    <cfRule type="expression" dxfId="455" priority="452" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="453" stopIfTrue="1">
       <formula>ISBLANK(BA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="454" stopIfTrue="1">
       <formula>OR(WEEKDAY(BA$3)=1,WEEKDAY(BA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA5:BA8 BA10:BA11">
-    <cfRule type="expression" dxfId="453" priority="454" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="455" stopIfTrue="1">
       <formula>ISBLANK(BA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="455" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="456" stopIfTrue="1">
       <formula>OR(WEEKDAY(BA$3)=1,WEEKDAY(BA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="456" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="457" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA12:BA109">
-    <cfRule type="expression" dxfId="450" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="450" stopIfTrue="1">
       <formula>ISBLANK(BA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="450" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="451" stopIfTrue="1">
       <formula>OR(WEEKDAY(BA$3)=1,WEEKDAY(BA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="451" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="452" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB3:BB4">
-    <cfRule type="expression" dxfId="447" priority="444" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="445" stopIfTrue="1">
       <formula>ISBLANK(BB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="446" stopIfTrue="1">
       <formula>OR(WEEKDAY(BB$3)=1,WEEKDAY(BB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB5:BB8 BB10:BB11">
-    <cfRule type="expression" dxfId="445" priority="446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="447" stopIfTrue="1">
       <formula>ISBLANK(BB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="448" stopIfTrue="1">
       <formula>OR(WEEKDAY(BB$3)=1,WEEKDAY(BB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="449" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB12:BB109">
-    <cfRule type="expression" dxfId="442" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="442" stopIfTrue="1">
       <formula>ISBLANK(BB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="442" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="443" stopIfTrue="1">
       <formula>OR(WEEKDAY(BB$3)=1,WEEKDAY(BB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="443" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="444" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC3:BC4">
-    <cfRule type="expression" dxfId="439" priority="436" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="437" stopIfTrue="1">
       <formula>ISBLANK(BC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="437" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="438" stopIfTrue="1">
       <formula>OR(WEEKDAY(BC$3)=1,WEEKDAY(BC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC5:BC8 BC10:BC11">
-    <cfRule type="expression" dxfId="437" priority="438" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="439" stopIfTrue="1">
       <formula>ISBLANK(BC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="439" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="440" stopIfTrue="1">
       <formula>OR(WEEKDAY(BC$3)=1,WEEKDAY(BC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="440" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="441" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC12:BC109">
-    <cfRule type="expression" dxfId="434" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="434" stopIfTrue="1">
       <formula>ISBLANK(BC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="434" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="435" stopIfTrue="1">
       <formula>OR(WEEKDAY(BC$3)=1,WEEKDAY(BC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="435" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="436" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD3:BD4">
-    <cfRule type="expression" dxfId="431" priority="428" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="429" stopIfTrue="1">
       <formula>ISBLANK(BD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="430" stopIfTrue="1">
       <formula>OR(WEEKDAY(BD$3)=1,WEEKDAY(BD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD5:BD8 BD10:BD11">
-    <cfRule type="expression" dxfId="429" priority="430" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="431" stopIfTrue="1">
       <formula>ISBLANK(BD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="431" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="432" stopIfTrue="1">
       <formula>OR(WEEKDAY(BD$3)=1,WEEKDAY(BD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="432" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="433" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD12:BD109">
-    <cfRule type="expression" dxfId="426" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="426" stopIfTrue="1">
       <formula>ISBLANK(BD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="427" stopIfTrue="1">
       <formula>OR(WEEKDAY(BD$3)=1,WEEKDAY(BD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="427" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="428" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE3:BE4">
-    <cfRule type="expression" dxfId="423" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="421" stopIfTrue="1">
       <formula>ISBLANK(BE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="422" stopIfTrue="1">
       <formula>OR(WEEKDAY(BE$3)=1,WEEKDAY(BE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE5:BE8 BE10:BE11">
-    <cfRule type="expression" dxfId="421" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="423" stopIfTrue="1">
       <formula>ISBLANK(BE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="424" stopIfTrue="1">
       <formula>OR(WEEKDAY(BE$3)=1,WEEKDAY(BE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="425" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE12:BE109">
-    <cfRule type="expression" dxfId="418" priority="417" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="418" stopIfTrue="1">
       <formula>ISBLANK(BE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="419" stopIfTrue="1">
       <formula>OR(WEEKDAY(BE$3)=1,WEEKDAY(BE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="420" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BF4">
-    <cfRule type="expression" dxfId="415" priority="412" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="413" stopIfTrue="1">
       <formula>ISBLANK(BF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="414" stopIfTrue="1">
       <formula>OR(WEEKDAY(BF$3)=1,WEEKDAY(BF$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF8 BF10:BF11">
-    <cfRule type="expression" dxfId="413" priority="414" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="415" stopIfTrue="1">
       <formula>ISBLANK(BF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="415" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="416" stopIfTrue="1">
       <formula>OR(WEEKDAY(BF$3)=1,WEEKDAY(BF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="416" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="417" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF12:BF109">
-    <cfRule type="expression" dxfId="410" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="410" stopIfTrue="1">
       <formula>ISBLANK(BF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="411" stopIfTrue="1">
       <formula>OR(WEEKDAY(BF$3)=1,WEEKDAY(BF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="412" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG3:BG4">
-    <cfRule type="expression" dxfId="407" priority="404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="405" stopIfTrue="1">
       <formula>ISBLANK(BG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="406" stopIfTrue="1">
       <formula>OR(WEEKDAY(BG$3)=1,WEEKDAY(BG$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG5:BG8 BG10:BG11">
-    <cfRule type="expression" dxfId="405" priority="406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="407" stopIfTrue="1">
       <formula>ISBLANK(BG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="408" stopIfTrue="1">
       <formula>OR(WEEKDAY(BG$3)=1,WEEKDAY(BG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="409" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG12:BG109">
-    <cfRule type="expression" dxfId="402" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="402" stopIfTrue="1">
       <formula>ISBLANK(BG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="402" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="403" stopIfTrue="1">
       <formula>OR(WEEKDAY(BG$3)=1,WEEKDAY(BG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="403" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="404" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH3:BH4">
-    <cfRule type="expression" dxfId="399" priority="396" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="397" stopIfTrue="1">
       <formula>ISBLANK(BH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="398" stopIfTrue="1">
       <formula>OR(WEEKDAY(BH$3)=1,WEEKDAY(BH$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BH8 BH10:BH11">
-    <cfRule type="expression" dxfId="397" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="399" stopIfTrue="1">
       <formula>ISBLANK(BH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="400" stopIfTrue="1">
       <formula>OR(WEEKDAY(BH$3)=1,WEEKDAY(BH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="400" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="401" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH12:BH109">
-    <cfRule type="expression" dxfId="394" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="394" stopIfTrue="1">
       <formula>ISBLANK(BH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="394" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="395" stopIfTrue="1">
       <formula>OR(WEEKDAY(BH$3)=1,WEEKDAY(BH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="395" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="396" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI3:BI4">
-    <cfRule type="expression" dxfId="391" priority="388" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="389" stopIfTrue="1">
       <formula>ISBLANK(BI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="390" stopIfTrue="1">
       <formula>OR(WEEKDAY(BI$3)=1,WEEKDAY(BI$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI5:BI8 BI10:BI11">
-    <cfRule type="expression" dxfId="389" priority="390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="391" stopIfTrue="1">
       <formula>ISBLANK(BI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="391" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="392" stopIfTrue="1">
       <formula>OR(WEEKDAY(BI$3)=1,WEEKDAY(BI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="393" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI12:BI109">
-    <cfRule type="expression" dxfId="386" priority="385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="386" stopIfTrue="1">
       <formula>ISBLANK(BI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="387" stopIfTrue="1">
       <formula>OR(WEEKDAY(BI$3)=1,WEEKDAY(BI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="387" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="388" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ3:BJ4">
-    <cfRule type="expression" dxfId="383" priority="380" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="381" stopIfTrue="1">
       <formula>ISBLANK(BJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="382" stopIfTrue="1">
       <formula>OR(WEEKDAY(BJ$3)=1,WEEKDAY(BJ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ5:BJ8 BJ10:BJ11">
-    <cfRule type="expression" dxfId="381" priority="382" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="383" stopIfTrue="1">
       <formula>ISBLANK(BJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="383" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="384" stopIfTrue="1">
       <formula>OR(WEEKDAY(BJ$3)=1,WEEKDAY(BJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="384" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="385" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ12:BJ109">
-    <cfRule type="expression" dxfId="378" priority="377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="378" stopIfTrue="1">
       <formula>ISBLANK(BJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="378" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="379" stopIfTrue="1">
       <formula>OR(WEEKDAY(BJ$3)=1,WEEKDAY(BJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="379" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="380" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK3:BK4">
-    <cfRule type="expression" dxfId="375" priority="372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="373" stopIfTrue="1">
       <formula>ISBLANK(BK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="374" stopIfTrue="1">
       <formula>OR(WEEKDAY(BK$3)=1,WEEKDAY(BK$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK5:BK8 BK10:BK11">
-    <cfRule type="expression" dxfId="373" priority="374" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="375" stopIfTrue="1">
       <formula>ISBLANK(BK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="376" stopIfTrue="1">
       <formula>OR(WEEKDAY(BK$3)=1,WEEKDAY(BK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="376" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="377" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK12:BK109">
-    <cfRule type="expression" dxfId="370" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="370" stopIfTrue="1">
       <formula>ISBLANK(BK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="370" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="371" stopIfTrue="1">
       <formula>OR(WEEKDAY(BK$3)=1,WEEKDAY(BK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="371" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="372" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL3:BL4">
-    <cfRule type="expression" dxfId="367" priority="364" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="365" stopIfTrue="1">
       <formula>ISBLANK(BL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="366" stopIfTrue="1">
       <formula>OR(WEEKDAY(BL$3)=1,WEEKDAY(BL$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL5:BL8 BL10:BL11">
-    <cfRule type="expression" dxfId="365" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="367" stopIfTrue="1">
       <formula>ISBLANK(BL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="368" stopIfTrue="1">
       <formula>OR(WEEKDAY(BL$3)=1,WEEKDAY(BL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="369" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL12:BL109">
-    <cfRule type="expression" dxfId="362" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="362" stopIfTrue="1">
       <formula>ISBLANK(BL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="362" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="363" stopIfTrue="1">
       <formula>OR(WEEKDAY(BL$3)=1,WEEKDAY(BL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="363" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="364" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM3:BM4">
-    <cfRule type="expression" dxfId="359" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="357" stopIfTrue="1">
       <formula>ISBLANK(BM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="358" stopIfTrue="1">
       <formula>OR(WEEKDAY(BM$3)=1,WEEKDAY(BM$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM5:BM8 BM10:BM11">
-    <cfRule type="expression" dxfId="357" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="359" stopIfTrue="1">
       <formula>ISBLANK(BM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="360" stopIfTrue="1">
       <formula>OR(WEEKDAY(BM$3)=1,WEEKDAY(BM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="361" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM12:BM109">
-    <cfRule type="expression" dxfId="354" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="354" stopIfTrue="1">
       <formula>ISBLANK(BM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="355" stopIfTrue="1">
       <formula>OR(WEEKDAY(BM$3)=1,WEEKDAY(BM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="356" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN3:BN4">
-    <cfRule type="expression" dxfId="351" priority="348" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="349" stopIfTrue="1">
       <formula>ISBLANK(BN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="350" stopIfTrue="1">
       <formula>OR(WEEKDAY(BN$3)=1,WEEKDAY(BN$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN5:BN8 BN10:BN11">
-    <cfRule type="expression" dxfId="349" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="351" stopIfTrue="1">
       <formula>ISBLANK(BN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="352" stopIfTrue="1">
       <formula>OR(WEEKDAY(BN$3)=1,WEEKDAY(BN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="353" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN12:BN109">
-    <cfRule type="expression" dxfId="346" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="346" stopIfTrue="1">
       <formula>ISBLANK(BN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="347" stopIfTrue="1">
       <formula>OR(WEEKDAY(BN$3)=1,WEEKDAY(BN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="347" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="348" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO3:BO4">
-    <cfRule type="expression" dxfId="343" priority="340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="341" stopIfTrue="1">
       <formula>ISBLANK(BO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="342" stopIfTrue="1">
       <formula>OR(WEEKDAY(BO$3)=1,WEEKDAY(BO$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO5:BO8 BO10:BO11">
-    <cfRule type="expression" dxfId="341" priority="342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="343" stopIfTrue="1">
       <formula>ISBLANK(BO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="343" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="344" stopIfTrue="1">
       <formula>OR(WEEKDAY(BO$3)=1,WEEKDAY(BO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="345" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO12:BO109">
-    <cfRule type="expression" dxfId="338" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="338" stopIfTrue="1">
       <formula>ISBLANK(BO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="339" stopIfTrue="1">
       <formula>OR(WEEKDAY(BO$3)=1,WEEKDAY(BO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="340" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BP4">
-    <cfRule type="expression" dxfId="335" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="333" stopIfTrue="1">
       <formula>ISBLANK(BP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="334" stopIfTrue="1">
       <formula>OR(WEEKDAY(BP$3)=1,WEEKDAY(BP$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP5:BP8 BP10:BP11">
-    <cfRule type="expression" dxfId="333" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="335" stopIfTrue="1">
       <formula>ISBLANK(BP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="336" stopIfTrue="1">
       <formula>OR(WEEKDAY(BP$3)=1,WEEKDAY(BP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="337" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP12:BP109">
-    <cfRule type="expression" dxfId="330" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="330" stopIfTrue="1">
       <formula>ISBLANK(BP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="331" stopIfTrue="1">
       <formula>OR(WEEKDAY(BP$3)=1,WEEKDAY(BP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="332" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ3:BQ4">
-    <cfRule type="expression" dxfId="327" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="325" stopIfTrue="1">
       <formula>ISBLANK(BQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="326" stopIfTrue="1">
       <formula>OR(WEEKDAY(BQ$3)=1,WEEKDAY(BQ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ5:BQ8 BQ10:BQ11">
-    <cfRule type="expression" dxfId="325" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="327" stopIfTrue="1">
       <formula>ISBLANK(BQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="328" stopIfTrue="1">
       <formula>OR(WEEKDAY(BQ$3)=1,WEEKDAY(BQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="329" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ12:BQ109">
-    <cfRule type="expression" dxfId="322" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="322" stopIfTrue="1">
       <formula>ISBLANK(BQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="323" stopIfTrue="1">
       <formula>OR(WEEKDAY(BQ$3)=1,WEEKDAY(BQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="324" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR3:BR4">
-    <cfRule type="expression" dxfId="319" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="317" stopIfTrue="1">
       <formula>ISBLANK(BR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="318" stopIfTrue="1">
       <formula>OR(WEEKDAY(BR$3)=1,WEEKDAY(BR$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR5:BR8 BR10:BR11">
-    <cfRule type="expression" dxfId="317" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="319" stopIfTrue="1">
       <formula>ISBLANK(BR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="320" stopIfTrue="1">
       <formula>OR(WEEKDAY(BR$3)=1,WEEKDAY(BR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="321" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR12:BR109">
-    <cfRule type="expression" dxfId="314" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="314" stopIfTrue="1">
       <formula>ISBLANK(BR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="315" stopIfTrue="1">
       <formula>OR(WEEKDAY(BR$3)=1,WEEKDAY(BR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="316" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS3:BS4">
-    <cfRule type="expression" dxfId="311" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="309" stopIfTrue="1">
       <formula>ISBLANK(BS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="310" stopIfTrue="1">
       <formula>OR(WEEKDAY(BS$3)=1,WEEKDAY(BS$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS5:BS8 BS10:BS11">
-    <cfRule type="expression" dxfId="309" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="311" stopIfTrue="1">
       <formula>ISBLANK(BS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="312" stopIfTrue="1">
       <formula>OR(WEEKDAY(BS$3)=1,WEEKDAY(BS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="313" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS12:BS109">
-    <cfRule type="expression" dxfId="306" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="306" stopIfTrue="1">
       <formula>ISBLANK(BS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="307" stopIfTrue="1">
       <formula>OR(WEEKDAY(BS$3)=1,WEEKDAY(BS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="308" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT3:BT4">
-    <cfRule type="expression" dxfId="303" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="301" stopIfTrue="1">
       <formula>ISBLANK(BT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="302" stopIfTrue="1">
       <formula>OR(WEEKDAY(BT$3)=1,WEEKDAY(BT$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT5:BT8 BT10:BT11">
-    <cfRule type="expression" dxfId="301" priority="302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="303" stopIfTrue="1">
       <formula>ISBLANK(BT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="304" stopIfTrue="1">
       <formula>OR(WEEKDAY(BT$3)=1,WEEKDAY(BT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="305" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT12:BT109">
-    <cfRule type="expression" dxfId="298" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="298" stopIfTrue="1">
       <formula>ISBLANK(BT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="299" stopIfTrue="1">
       <formula>OR(WEEKDAY(BT$3)=1,WEEKDAY(BT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="300" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU3:BU4">
-    <cfRule type="expression" dxfId="295" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="293" stopIfTrue="1">
       <formula>ISBLANK(BU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="294" stopIfTrue="1">
       <formula>OR(WEEKDAY(BU$3)=1,WEEKDAY(BU$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU5:BU8 BU10:BU11">
-    <cfRule type="expression" dxfId="293" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="295" stopIfTrue="1">
       <formula>ISBLANK(BU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="296" stopIfTrue="1">
       <formula>OR(WEEKDAY(BU$3)=1,WEEKDAY(BU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="297" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU12:BU109">
-    <cfRule type="expression" dxfId="290" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="290" stopIfTrue="1">
       <formula>ISBLANK(BU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="291" stopIfTrue="1">
       <formula>OR(WEEKDAY(BU$3)=1,WEEKDAY(BU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="292" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV3:BV4">
-    <cfRule type="expression" dxfId="287" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="285" stopIfTrue="1">
       <formula>ISBLANK(BV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="286" stopIfTrue="1">
       <formula>OR(WEEKDAY(BV$3)=1,WEEKDAY(BV$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV5:BV8 BV10:BV11">
-    <cfRule type="expression" dxfId="285" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="287" stopIfTrue="1">
       <formula>ISBLANK(BV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="288" stopIfTrue="1">
       <formula>OR(WEEKDAY(BV$3)=1,WEEKDAY(BV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="289" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV12:BV109">
-    <cfRule type="expression" dxfId="282" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="282" stopIfTrue="1">
       <formula>ISBLANK(BV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="283" stopIfTrue="1">
       <formula>OR(WEEKDAY(BV$3)=1,WEEKDAY(BV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="284" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW3:BW4">
-    <cfRule type="expression" dxfId="279" priority="276" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="277" stopIfTrue="1">
       <formula>ISBLANK(BW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="278" stopIfTrue="1">
       <formula>OR(WEEKDAY(BW$3)=1,WEEKDAY(BW$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW5:BW8 BW10:BW11">
-    <cfRule type="expression" dxfId="277" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="279" stopIfTrue="1">
       <formula>ISBLANK(BW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="280" stopIfTrue="1">
       <formula>OR(WEEKDAY(BW$3)=1,WEEKDAY(BW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="281" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW12:BW109">
-    <cfRule type="expression" dxfId="274" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="274" stopIfTrue="1">
       <formula>ISBLANK(BW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="275" stopIfTrue="1">
       <formula>OR(WEEKDAY(BW$3)=1,WEEKDAY(BW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="275" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="276" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX3:BX4">
-    <cfRule type="expression" dxfId="271" priority="268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="269" stopIfTrue="1">
       <formula>ISBLANK(BX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="270" stopIfTrue="1">
       <formula>OR(WEEKDAY(BX$3)=1,WEEKDAY(BX$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX5:BX8 BX10:BX11">
-    <cfRule type="expression" dxfId="269" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="271" stopIfTrue="1">
       <formula>ISBLANK(BX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="272" stopIfTrue="1">
       <formula>OR(WEEKDAY(BX$3)=1,WEEKDAY(BX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="273" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX12:BX109">
-    <cfRule type="expression" dxfId="266" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="266" stopIfTrue="1">
       <formula>ISBLANK(BX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="267" stopIfTrue="1">
       <formula>OR(WEEKDAY(BX$3)=1,WEEKDAY(BX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="268" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY3:BY4">
-    <cfRule type="expression" dxfId="263" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="261" stopIfTrue="1">
       <formula>ISBLANK(BY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="262" stopIfTrue="1">
       <formula>OR(WEEKDAY(BY$3)=1,WEEKDAY(BY$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:BY8 BY10:BY11">
-    <cfRule type="expression" dxfId="261" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="263" stopIfTrue="1">
       <formula>ISBLANK(BY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="264" stopIfTrue="1">
       <formula>OR(WEEKDAY(BY$3)=1,WEEKDAY(BY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="265" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY12:BY109">
-    <cfRule type="expression" dxfId="258" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="258" stopIfTrue="1">
       <formula>ISBLANK(BY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="259" stopIfTrue="1">
       <formula>OR(WEEKDAY(BY$3)=1,WEEKDAY(BY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="260" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ3:BZ4">
-    <cfRule type="expression" dxfId="255" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="253" stopIfTrue="1">
       <formula>ISBLANK(BZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="254" stopIfTrue="1">
       <formula>OR(WEEKDAY(BZ$3)=1,WEEKDAY(BZ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ5:BZ8 BZ10:BZ11">
-    <cfRule type="expression" dxfId="253" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="255" stopIfTrue="1">
       <formula>ISBLANK(BZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="256" stopIfTrue="1">
       <formula>OR(WEEKDAY(BZ$3)=1,WEEKDAY(BZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="257" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ12:BZ109">
-    <cfRule type="expression" dxfId="250" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="250" stopIfTrue="1">
       <formula>ISBLANK(BZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="251" stopIfTrue="1">
       <formula>OR(WEEKDAY(BZ$3)=1,WEEKDAY(BZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="252" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA3:CA4">
-    <cfRule type="expression" dxfId="247" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="245" stopIfTrue="1">
       <formula>ISBLANK(CA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="246" stopIfTrue="1">
       <formula>OR(WEEKDAY(CA$3)=1,WEEKDAY(CA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA5:CA8 CA10:CA11">
-    <cfRule type="expression" dxfId="245" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="247" stopIfTrue="1">
       <formula>ISBLANK(CA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="248" stopIfTrue="1">
       <formula>OR(WEEKDAY(CA$3)=1,WEEKDAY(CA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="249" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12:CA109">
-    <cfRule type="expression" dxfId="242" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="242" stopIfTrue="1">
       <formula>ISBLANK(CA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="243" stopIfTrue="1">
       <formula>OR(WEEKDAY(CA$3)=1,WEEKDAY(CA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="244" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB3:CB4">
-    <cfRule type="expression" dxfId="239" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="237" stopIfTrue="1">
       <formula>ISBLANK(CB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="238" stopIfTrue="1">
       <formula>OR(WEEKDAY(CB$3)=1,WEEKDAY(CB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB5:CB8 CB10:CB11">
-    <cfRule type="expression" dxfId="237" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="239" stopIfTrue="1">
       <formula>ISBLANK(CB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="240" stopIfTrue="1">
       <formula>OR(WEEKDAY(CB$3)=1,WEEKDAY(CB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="241" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB12:CB109">
-    <cfRule type="expression" dxfId="234" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="234" stopIfTrue="1">
       <formula>ISBLANK(CB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="235" stopIfTrue="1">
       <formula>OR(WEEKDAY(CB$3)=1,WEEKDAY(CB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="236" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC3:CC4">
-    <cfRule type="expression" dxfId="231" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="229" stopIfTrue="1">
       <formula>ISBLANK(CC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="230" stopIfTrue="1">
       <formula>OR(WEEKDAY(CC$3)=1,WEEKDAY(CC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC5:CC8 CC10:CC11">
-    <cfRule type="expression" dxfId="229" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="231" stopIfTrue="1">
       <formula>ISBLANK(CC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="232" stopIfTrue="1">
       <formula>OR(WEEKDAY(CC$3)=1,WEEKDAY(CC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="233" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC12:CC109">
-    <cfRule type="expression" dxfId="226" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="226" stopIfTrue="1">
       <formula>ISBLANK(CC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="227" stopIfTrue="1">
       <formula>OR(WEEKDAY(CC$3)=1,WEEKDAY(CC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="228" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD3:CD4">
-    <cfRule type="expression" dxfId="223" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="221" stopIfTrue="1">
       <formula>ISBLANK(CD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="222" stopIfTrue="1">
       <formula>OR(WEEKDAY(CD$3)=1,WEEKDAY(CD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD5:CD8 CD10:CD11">
-    <cfRule type="expression" dxfId="221" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="223" stopIfTrue="1">
       <formula>ISBLANK(CD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="224" stopIfTrue="1">
       <formula>OR(WEEKDAY(CD$3)=1,WEEKDAY(CD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="225" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD12:CD109">
-    <cfRule type="expression" dxfId="218" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="218" stopIfTrue="1">
       <formula>ISBLANK(CD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="219" stopIfTrue="1">
       <formula>OR(WEEKDAY(CD$3)=1,WEEKDAY(CD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="220" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE3:CE4">
-    <cfRule type="expression" dxfId="215" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="213" stopIfTrue="1">
       <formula>ISBLANK(CE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="214" stopIfTrue="1">
       <formula>OR(WEEKDAY(CE$3)=1,WEEKDAY(CE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE5:CE8 CE10:CE11">
-    <cfRule type="expression" dxfId="213" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="215" stopIfTrue="1">
       <formula>ISBLANK(CE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="216" stopIfTrue="1">
       <formula>OR(WEEKDAY(CE$3)=1,WEEKDAY(CE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="217" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE12:CE109">
-    <cfRule type="expression" dxfId="210" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="210" stopIfTrue="1">
       <formula>ISBLANK(CE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="211" stopIfTrue="1">
       <formula>OR(WEEKDAY(CE$3)=1,WEEKDAY(CE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="212" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF3:CF4">
-    <cfRule type="expression" dxfId="207" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="205" stopIfTrue="1">
       <formula>ISBLANK(CF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="206" stopIfTrue="1">
       <formula>OR(WEEKDAY(CF$3)=1,WEEKDAY(CF$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF5:CF8 CF10:CF11">
-    <cfRule type="expression" dxfId="205" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="207" stopIfTrue="1">
       <formula>ISBLANK(CF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="208" stopIfTrue="1">
       <formula>OR(WEEKDAY(CF$3)=1,WEEKDAY(CF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="209" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF12:CF109">
-    <cfRule type="expression" dxfId="202" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="202" stopIfTrue="1">
       <formula>ISBLANK(CF$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="203" stopIfTrue="1">
       <formula>OR(WEEKDAY(CF$3)=1,WEEKDAY(CF$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="204" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG3:CG4">
-    <cfRule type="expression" dxfId="199" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="197" stopIfTrue="1">
       <formula>ISBLANK(CG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="198" stopIfTrue="1">
       <formula>OR(WEEKDAY(CG$3)=1,WEEKDAY(CG$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG5:CG8 CG10:CG11">
-    <cfRule type="expression" dxfId="197" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="199" stopIfTrue="1">
       <formula>ISBLANK(CG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="200" stopIfTrue="1">
       <formula>OR(WEEKDAY(CG$3)=1,WEEKDAY(CG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="201" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG12:CG109">
-    <cfRule type="expression" dxfId="194" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="194" stopIfTrue="1">
       <formula>ISBLANK(CG$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="195" stopIfTrue="1">
       <formula>OR(WEEKDAY(CG$3)=1,WEEKDAY(CG$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="196" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH3:CH4">
-    <cfRule type="expression" dxfId="191" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="189" stopIfTrue="1">
       <formula>ISBLANK(CH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="190" stopIfTrue="1">
       <formula>OR(WEEKDAY(CH$3)=1,WEEKDAY(CH$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH5:CH8 CH10:CH11">
-    <cfRule type="expression" dxfId="189" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="191" stopIfTrue="1">
       <formula>ISBLANK(CH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="192" stopIfTrue="1">
       <formula>OR(WEEKDAY(CH$3)=1,WEEKDAY(CH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="193" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH12:CH109">
-    <cfRule type="expression" dxfId="186" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="186" stopIfTrue="1">
       <formula>ISBLANK(CH$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="187" stopIfTrue="1">
       <formula>OR(WEEKDAY(CH$3)=1,WEEKDAY(CH$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="188" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI3:CI4">
-    <cfRule type="expression" dxfId="183" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="181" stopIfTrue="1">
       <formula>ISBLANK(CI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="182" stopIfTrue="1">
       <formula>OR(WEEKDAY(CI$3)=1,WEEKDAY(CI$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI5:CI8 CI10:CI11">
-    <cfRule type="expression" dxfId="181" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="183" stopIfTrue="1">
       <formula>ISBLANK(CI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="184" stopIfTrue="1">
       <formula>OR(WEEKDAY(CI$3)=1,WEEKDAY(CI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="185" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI12:CI109">
-    <cfRule type="expression" dxfId="178" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="178" stopIfTrue="1">
       <formula>ISBLANK(CI$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="179" stopIfTrue="1">
       <formula>OR(WEEKDAY(CI$3)=1,WEEKDAY(CI$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="180" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ3:CJ4">
-    <cfRule type="expression" dxfId="175" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="173" stopIfTrue="1">
       <formula>ISBLANK(CJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="174" stopIfTrue="1">
       <formula>OR(WEEKDAY(CJ$3)=1,WEEKDAY(CJ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ5:CJ8 CJ10:CJ11">
-    <cfRule type="expression" dxfId="173" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="175" stopIfTrue="1">
       <formula>ISBLANK(CJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="176" stopIfTrue="1">
       <formula>OR(WEEKDAY(CJ$3)=1,WEEKDAY(CJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="177" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ12:CJ109">
-    <cfRule type="expression" dxfId="170" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="170" stopIfTrue="1">
       <formula>ISBLANK(CJ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="171" stopIfTrue="1">
       <formula>OR(WEEKDAY(CJ$3)=1,WEEKDAY(CJ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="172" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK3:CK4">
-    <cfRule type="expression" dxfId="167" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="165" stopIfTrue="1">
       <formula>ISBLANK(CK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="166" stopIfTrue="1">
       <formula>OR(WEEKDAY(CK$3)=1,WEEKDAY(CK$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK5:CK8 CK10:CK11">
-    <cfRule type="expression" dxfId="165" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="167" stopIfTrue="1">
       <formula>ISBLANK(CK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="168" stopIfTrue="1">
       <formula>OR(WEEKDAY(CK$3)=1,WEEKDAY(CK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="169" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK12:CK109">
-    <cfRule type="expression" dxfId="162" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="162" stopIfTrue="1">
       <formula>ISBLANK(CK$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="163" stopIfTrue="1">
       <formula>OR(WEEKDAY(CK$3)=1,WEEKDAY(CK$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="164" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL3:CL4">
-    <cfRule type="expression" dxfId="159" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="157" stopIfTrue="1">
       <formula>ISBLANK(CL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="158" stopIfTrue="1">
       <formula>OR(WEEKDAY(CL$3)=1,WEEKDAY(CL$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL5:CL8 CL10:CL11">
-    <cfRule type="expression" dxfId="157" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="159" stopIfTrue="1">
       <formula>ISBLANK(CL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="160" stopIfTrue="1">
       <formula>OR(WEEKDAY(CL$3)=1,WEEKDAY(CL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="161" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL12:CL109">
-    <cfRule type="expression" dxfId="154" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="154" stopIfTrue="1">
       <formula>ISBLANK(CL$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="155" stopIfTrue="1">
       <formula>OR(WEEKDAY(CL$3)=1,WEEKDAY(CL$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="156" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM3:CM4">
-    <cfRule type="expression" dxfId="151" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="149" stopIfTrue="1">
       <formula>ISBLANK(CM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="150" stopIfTrue="1">
       <formula>OR(WEEKDAY(CM$3)=1,WEEKDAY(CM$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM5:CM8 CM10:CM11">
-    <cfRule type="expression" dxfId="149" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="151" stopIfTrue="1">
       <formula>ISBLANK(CM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="152" stopIfTrue="1">
       <formula>OR(WEEKDAY(CM$3)=1,WEEKDAY(CM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="153" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM12:CM109">
-    <cfRule type="expression" dxfId="146" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="146" stopIfTrue="1">
       <formula>ISBLANK(CM$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="147" stopIfTrue="1">
       <formula>OR(WEEKDAY(CM$3)=1,WEEKDAY(CM$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="148" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN3:CN4">
-    <cfRule type="expression" dxfId="143" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="141" stopIfTrue="1">
       <formula>ISBLANK(CN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="142" stopIfTrue="1">
       <formula>OR(WEEKDAY(CN$3)=1,WEEKDAY(CN$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN5:CN8 CN10:CN11">
-    <cfRule type="expression" dxfId="141" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="143" stopIfTrue="1">
       <formula>ISBLANK(CN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="144" stopIfTrue="1">
       <formula>OR(WEEKDAY(CN$3)=1,WEEKDAY(CN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="145" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN12:CN109">
-    <cfRule type="expression" dxfId="138" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="138" stopIfTrue="1">
       <formula>ISBLANK(CN$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="139" stopIfTrue="1">
       <formula>OR(WEEKDAY(CN$3)=1,WEEKDAY(CN$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="140" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO3:CO4">
-    <cfRule type="expression" dxfId="135" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="133" stopIfTrue="1">
       <formula>ISBLANK(CO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="134" stopIfTrue="1">
       <formula>OR(WEEKDAY(CO$3)=1,WEEKDAY(CO$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO5:CO8 CO10:CO11">
-    <cfRule type="expression" dxfId="133" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="135" stopIfTrue="1">
       <formula>ISBLANK(CO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="136" stopIfTrue="1">
       <formula>OR(WEEKDAY(CO$3)=1,WEEKDAY(CO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="137" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO12:CO109">
-    <cfRule type="expression" dxfId="130" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="130" stopIfTrue="1">
       <formula>ISBLANK(CO$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="131" stopIfTrue="1">
       <formula>OR(WEEKDAY(CO$3)=1,WEEKDAY(CO$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="132" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP3:CP4">
-    <cfRule type="expression" dxfId="127" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="125" stopIfTrue="1">
       <formula>ISBLANK(CP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="126" stopIfTrue="1">
       <formula>OR(WEEKDAY(CP$3)=1,WEEKDAY(CP$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP5:CP8 CP10:CP11">
-    <cfRule type="expression" dxfId="125" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="127" stopIfTrue="1">
       <formula>ISBLANK(CP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="128" stopIfTrue="1">
       <formula>OR(WEEKDAY(CP$3)=1,WEEKDAY(CP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="129" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP12:CP109">
-    <cfRule type="expression" dxfId="122" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="122" stopIfTrue="1">
       <formula>ISBLANK(CP$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="123" stopIfTrue="1">
       <formula>OR(WEEKDAY(CP$3)=1,WEEKDAY(CP$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="124" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ3:CQ4">
-    <cfRule type="expression" dxfId="119" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="117" stopIfTrue="1">
       <formula>ISBLANK(CQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="118" stopIfTrue="1">
       <formula>OR(WEEKDAY(CQ$3)=1,WEEKDAY(CQ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ5:CQ8 CQ10:CQ11">
-    <cfRule type="expression" dxfId="117" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="119" stopIfTrue="1">
       <formula>ISBLANK(CQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="120" stopIfTrue="1">
       <formula>OR(WEEKDAY(CQ$3)=1,WEEKDAY(CQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="121" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ12:CQ109">
-    <cfRule type="expression" dxfId="114" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="114" stopIfTrue="1">
       <formula>ISBLANK(CQ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="115" stopIfTrue="1">
       <formula>OR(WEEKDAY(CQ$3)=1,WEEKDAY(CQ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="116" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR3:CR4">
-    <cfRule type="expression" dxfId="111" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="109" stopIfTrue="1">
       <formula>ISBLANK(CR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="110" stopIfTrue="1">
       <formula>OR(WEEKDAY(CR$3)=1,WEEKDAY(CR$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR5:CR8 CR10:CR11">
-    <cfRule type="expression" dxfId="109" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="111" stopIfTrue="1">
       <formula>ISBLANK(CR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="112" stopIfTrue="1">
       <formula>OR(WEEKDAY(CR$3)=1,WEEKDAY(CR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="113" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR12:CR109">
-    <cfRule type="expression" dxfId="106" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="106" stopIfTrue="1">
       <formula>ISBLANK(CR$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="107" stopIfTrue="1">
       <formula>OR(WEEKDAY(CR$3)=1,WEEKDAY(CR$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="108" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS3:CS4">
-    <cfRule type="expression" dxfId="103" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="101" stopIfTrue="1">
       <formula>ISBLANK(CS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="102" stopIfTrue="1">
       <formula>OR(WEEKDAY(CS$3)=1,WEEKDAY(CS$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS5:CS8 CS10:CS11">
-    <cfRule type="expression" dxfId="101" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="103" stopIfTrue="1">
       <formula>ISBLANK(CS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="104" stopIfTrue="1">
       <formula>OR(WEEKDAY(CS$3)=1,WEEKDAY(CS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="105" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS12:CS109">
-    <cfRule type="expression" dxfId="98" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="98" stopIfTrue="1">
       <formula>ISBLANK(CS$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="99" stopIfTrue="1">
       <formula>OR(WEEKDAY(CS$3)=1,WEEKDAY(CS$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="100" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT3:CT4">
-    <cfRule type="expression" dxfId="95" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="93" stopIfTrue="1">
       <formula>ISBLANK(CT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="94" stopIfTrue="1">
       <formula>OR(WEEKDAY(CT$3)=1,WEEKDAY(CT$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT5:CT8 CT10:CT11">
-    <cfRule type="expression" dxfId="93" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="95" stopIfTrue="1">
       <formula>ISBLANK(CT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="96" stopIfTrue="1">
       <formula>OR(WEEKDAY(CT$3)=1,WEEKDAY(CT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="97" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT12:CT109">
-    <cfRule type="expression" dxfId="90" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="90" stopIfTrue="1">
       <formula>ISBLANK(CT$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="91" stopIfTrue="1">
       <formula>OR(WEEKDAY(CT$3)=1,WEEKDAY(CT$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="92" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU3:CU4">
-    <cfRule type="expression" dxfId="87" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="85" stopIfTrue="1">
       <formula>ISBLANK(CU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="86" stopIfTrue="1">
       <formula>OR(WEEKDAY(CU$3)=1,WEEKDAY(CU$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU5:CU8 CU10:CU11">
-    <cfRule type="expression" dxfId="85" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="87" stopIfTrue="1">
       <formula>ISBLANK(CU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="88" stopIfTrue="1">
       <formula>OR(WEEKDAY(CU$3)=1,WEEKDAY(CU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="89" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU12:CU109">
-    <cfRule type="expression" dxfId="82" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="82" stopIfTrue="1">
       <formula>ISBLANK(CU$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="83" stopIfTrue="1">
       <formula>OR(WEEKDAY(CU$3)=1,WEEKDAY(CU$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="84" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV3:CV4">
-    <cfRule type="expression" dxfId="79" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="77" stopIfTrue="1">
       <formula>ISBLANK(CV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="78" stopIfTrue="1">
       <formula>OR(WEEKDAY(CV$3)=1,WEEKDAY(CV$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV5:CV8 CV10:CV11">
-    <cfRule type="expression" dxfId="77" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="79" stopIfTrue="1">
       <formula>ISBLANK(CV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="80" stopIfTrue="1">
       <formula>OR(WEEKDAY(CV$3)=1,WEEKDAY(CV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV12:CV109">
-    <cfRule type="expression" dxfId="74" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="74" stopIfTrue="1">
       <formula>ISBLANK(CV$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="75" stopIfTrue="1">
       <formula>OR(WEEKDAY(CV$3)=1,WEEKDAY(CV$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW3:CW4">
-    <cfRule type="expression" dxfId="71" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="69" stopIfTrue="1">
       <formula>ISBLANK(CW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="70" stopIfTrue="1">
       <formula>OR(WEEKDAY(CW$3)=1,WEEKDAY(CW$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW5:CW8 CW10:CW11">
-    <cfRule type="expression" dxfId="69" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="71" stopIfTrue="1">
       <formula>ISBLANK(CW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="72" stopIfTrue="1">
       <formula>OR(WEEKDAY(CW$3)=1,WEEKDAY(CW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW12:CW109">
-    <cfRule type="expression" dxfId="66" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="66" stopIfTrue="1">
       <formula>ISBLANK(CW$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="67" stopIfTrue="1">
       <formula>OR(WEEKDAY(CW$3)=1,WEEKDAY(CW$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX3:CX4">
-    <cfRule type="expression" dxfId="63" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="61" stopIfTrue="1">
       <formula>ISBLANK(CX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="62" stopIfTrue="1">
       <formula>OR(WEEKDAY(CX$3)=1,WEEKDAY(CX$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX5:CX8 CX10:CX11">
-    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="63" stopIfTrue="1">
       <formula>ISBLANK(CX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="64" stopIfTrue="1">
       <formula>OR(WEEKDAY(CX$3)=1,WEEKDAY(CX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX12:CX109">
-    <cfRule type="expression" dxfId="58" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
       <formula>ISBLANK(CX$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
       <formula>OR(WEEKDAY(CX$3)=1,WEEKDAY(CX$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY3:CY4">
-    <cfRule type="expression" dxfId="55" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="53" stopIfTrue="1">
       <formula>ISBLANK(CY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="54" stopIfTrue="1">
       <formula>OR(WEEKDAY(CY$3)=1,WEEKDAY(CY$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY5:CY8 CY10:CY11">
-    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
       <formula>ISBLANK(CY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="56" stopIfTrue="1">
       <formula>OR(WEEKDAY(CY$3)=1,WEEKDAY(CY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY12:CY109">
-    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="50" stopIfTrue="1">
       <formula>ISBLANK(CY$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
       <formula>OR(WEEKDAY(CY$3)=1,WEEKDAY(CY$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ3:CZ4">
-    <cfRule type="expression" dxfId="47" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="45" stopIfTrue="1">
       <formula>ISBLANK(CZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
       <formula>OR(WEEKDAY(CZ$3)=1,WEEKDAY(CZ$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ5:CZ8 CZ10:CZ11">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
       <formula>ISBLANK(CZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
       <formula>OR(WEEKDAY(CZ$3)=1,WEEKDAY(CZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ12:CZ109">
-    <cfRule type="expression" dxfId="42" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
       <formula>ISBLANK(CZ$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
       <formula>OR(WEEKDAY(CZ$3)=1,WEEKDAY(CZ$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA3:DA4">
-    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="37" stopIfTrue="1">
       <formula>ISBLANK(DA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="38" stopIfTrue="1">
       <formula>OR(WEEKDAY(DA$3)=1,WEEKDAY(DA$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA5:DA8 DA10:DA11">
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
       <formula>ISBLANK(DA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="40" stopIfTrue="1">
       <formula>OR(WEEKDAY(DA$3)=1,WEEKDAY(DA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA12:DA109">
-    <cfRule type="expression" dxfId="34" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
       <formula>ISBLANK(DA$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
       <formula>OR(WEEKDAY(DA$3)=1,WEEKDAY(DA$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB3:DB4">
-    <cfRule type="expression" dxfId="31" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="29" stopIfTrue="1">
       <formula>ISBLANK(DB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="30" stopIfTrue="1">
       <formula>OR(WEEKDAY(DB$3)=1,WEEKDAY(DB$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB5:DB8 DB10:DB11">
-    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
       <formula>ISBLANK(DB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
       <formula>OR(WEEKDAY(DB$3)=1,WEEKDAY(DB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB12:DB109">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="26" stopIfTrue="1">
       <formula>ISBLANK(DB$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>OR(WEEKDAY(DB$3)=1,WEEKDAY(DB$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC3:DC4">
-    <cfRule type="expression" dxfId="23" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="21" stopIfTrue="1">
       <formula>ISBLANK(DC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
       <formula>OR(WEEKDAY(DC$3)=1,WEEKDAY(DC$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC5:DC8 DC10:DC11">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>ISBLANK(DC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
       <formula>OR(WEEKDAY(DC$3)=1,WEEKDAY(DC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DC12:DC109">
-    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
       <formula>ISBLANK(DC$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>OR(WEEKDAY(DC$3)=1,WEEKDAY(DC$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD3:DD4">
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="13" stopIfTrue="1">
       <formula>ISBLANK(DD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
       <formula>OR(WEEKDAY(DD$3)=1,WEEKDAY(DD$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD5:DD8 DD10:DD11">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>ISBLANK(DD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
       <formula>OR(WEEKDAY(DD$3)=1,WEEKDAY(DD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD12:DD109">
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>ISBLANK(DD$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>OR(WEEKDAY(DD$3)=1,WEEKDAY(DD$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE3:DE4">
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>ISBLANK(DE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>OR(WEEKDAY(DE$3)=1,WEEKDAY(DE$3)=7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE5:DE8 DE10:DE11">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>ISBLANK(DE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>OR(WEEKDAY(DE$3)=1,WEEKDAY(DE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DE12:DE109">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>ISBLANK(DE$2)=FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>OR(WEEKDAY(DE$3)=1,WEEKDAY(DE$3)=7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B7">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
